--- a/Datos/Anuario2024/080701_TICH.xlsx
+++ b/Datos/Anuario2024/080701_TICH.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="76" r:id="rId1"/>
+    <sheet name="1" sheetId="77" r:id="rId2"/>
+    <sheet name="2" sheetId="78" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -59,6 +65,8 @@
     <definedName name="_R7_7">#REF!</definedName>
     <definedName name="_R7_8">#REF!</definedName>
     <definedName name="_R7_9">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="1">'1'!$A$1:$D$2</definedName>
+    <definedName name="_R8_1" localSheetId="2">'2'!$A$1:$D$5</definedName>
     <definedName name="_R8_1">#REF!</definedName>
     <definedName name="_R8_2">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
@@ -74,6 +82,7 @@
     <definedName name="_R9_8">#REF!</definedName>
     <definedName name="a1_">#REF!</definedName>
     <definedName name="a12_">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$D$2</definedName>
     <definedName name="bla">#REF!</definedName>
     <definedName name="nuev">#REF!</definedName>
     <definedName name="Nuevo">#REF!</definedName>
@@ -108,90 +117,176 @@
     <definedName name="wqrqrqwrqwrqr">#REF!</definedName>
     <definedName name="xcvbcxvx">#REF!</definedName>
     <definedName name="yyyty6">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="1">'1'!$A$1:$D$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$D$2</definedName>
-    <definedName name="_R8_1" localSheetId="2">'2'!$A$1:$D$5</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Frecuencia de uso:</t>
+  </si>
+  <si>
+    <t>Compras a través de Internet (últimos 3 meses)</t>
+  </si>
+  <si>
+    <t>Personas de 16 y más años (miles)</t>
+  </si>
+  <si>
+    <t>Con teléfono móvil</t>
+  </si>
+  <si>
+    <t>Con teléfono fijo</t>
+  </si>
+  <si>
+    <t>Con teléfono fijo y móvil</t>
+  </si>
+  <si>
+    <t>Algún tipo de ordenador</t>
+  </si>
+  <si>
+    <t>Viviendas (miles)</t>
+  </si>
+  <si>
+    <t>Acceso a Internet</t>
+  </si>
+  <si>
+    <t>Con algún tipo de teléfono</t>
+  </si>
+  <si>
+    <t>Han utilizado Internet (últimos 3 meses)</t>
+  </si>
+  <si>
+    <t>Menos de una vez por semana</t>
+  </si>
+  <si>
+    <t>Según forma de conexión:</t>
+  </si>
+  <si>
+    <t>Diariamente, al menos 5 días por semana</t>
+  </si>
+  <si>
+    <t>Todas las semanas, pero no diariamente</t>
+  </si>
+  <si>
+    <t>Banda ancha</t>
+  </si>
+  <si>
+    <t>Banda ancha fija</t>
+  </si>
+  <si>
+    <t>ENCUESTA DE TECNOLOGÍAS DE LA INFORMACIÓN EN LOS HOGARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: Viviendas con alguna persona de 16 o más años de edad. </t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta de Tecnologías de la Información en los Hogares del INE. Elaboración propia a partir del fichero de microdatos.</t>
+  </si>
+  <si>
+    <t>1. Viviendas según características principales de Tecnologías de la Información. 2023</t>
+  </si>
+  <si>
+    <t>2. Personas según el uso de las Tecnologías de la Información. 2023</t>
+  </si>
+  <si>
+    <t>Con tablet</t>
+  </si>
+  <si>
+    <t>Banda ancha solo móvil</t>
+  </si>
+  <si>
+    <t>Más de una vez al día</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -222,136 +317,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 15" xfId="7"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2_2.4" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 2_2.4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 15" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -420,7 +492,19 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF2C7C7C"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -710,505 +794,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja64">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
-        <is>
-          <t>ENCUESTA DE TECNOLOGÍAS DE LA INFORMACIÓN EN LOS HOGARES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja65">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="28.5703125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="12.28515625" customWidth="1" style="2" min="2" max="4"/>
-    <col width="11.42578125" customWidth="1" style="2" min="5" max="16384"/>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
-        <is>
-          <t>1. Viviendas según características principales de Tecnologías de la Información. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-      <c r="D3" s="24" t="inlineStr">
-        <is>
-          <t>España</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>Viviendas (miles)</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
-        <v>323.811</v>
-      </c>
-      <c r="C4" s="36" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26">
+        <v>323.81099999999998</v>
+      </c>
+      <c r="C4" s="26">
         <v>2104.44</v>
       </c>
-      <c r="D4" s="36" t="n">
-        <v>19239.951</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Algún tipo de ordenador</t>
-        </is>
-      </c>
-      <c r="B5" s="37" t="n">
+      <c r="D4" s="26">
+        <v>19239.951000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
         <v>0.754</v>
       </c>
-      <c r="C5" s="37" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="D5" s="37" t="n">
-        <v>0.771</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Acceso a Internet</t>
-        </is>
-      </c>
-      <c r="B6" s="38" t="n">
-        <v>0.911</v>
-      </c>
-      <c r="C6" s="38" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="D6" s="38" t="n">
-        <v>0.922</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Según forma de conexión:</t>
-        </is>
-      </c>
-      <c r="B7" s="37" t="n"/>
-      <c r="C7" s="37" t="n"/>
-      <c r="D7" s="37" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="23" t="inlineStr">
-        <is>
-          <t>Banda ancha</t>
-        </is>
-      </c>
-      <c r="B8" s="38" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="C8" s="38" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="D8" s="38" t="n">
-        <v>0.921</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29" t="inlineStr">
-        <is>
-          <t>Banda ancha fija</t>
-        </is>
-      </c>
-      <c r="B9" s="37" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="C9" s="37" t="n">
+      <c r="C5" s="13">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="C9" s="13">
         <v>0.77</v>
       </c>
-      <c r="D9" s="37" t="n">
-        <v>0.781</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="30" t="inlineStr">
-        <is>
-          <t>Banda ancha solo móvil</t>
-        </is>
-      </c>
-      <c r="B10" s="38" t="n">
+      <c r="D9" s="13">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
         <v>0.12</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="8">
         <v>0.16</v>
       </c>
-      <c r="D10" s="38" t="n">
+      <c r="D10" s="8">
         <v>0.152</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Con algún tipo de teléfono</t>
-        </is>
-      </c>
-      <c r="B11" s="37" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
         <v>0.995</v>
       </c>
-      <c r="C11" s="37" t="n">
+      <c r="C11" s="13">
         <v>0.998</v>
       </c>
-      <c r="D11" s="37" t="n">
+      <c r="D11" s="13">
         <v>0.997</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="28" t="inlineStr">
-        <is>
-          <t>Con teléfono fijo</t>
-        </is>
-      </c>
-      <c r="B12" s="39" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="C12" s="39" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="C12" s="20">
         <v>0.437</v>
       </c>
-      <c r="D12" s="38" t="n">
-        <v>0.594</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Con teléfono móvil</t>
-        </is>
-      </c>
-      <c r="B13" s="40" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="C13" s="37" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="D13" s="41" t="n">
-        <v>0.982</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>Con teléfono fijo y móvil</t>
-        </is>
-      </c>
-      <c r="B14" s="42" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="C14" s="42" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="D14" s="42" t="n">
-        <v>0.578</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>Con tablet</t>
-        </is>
-      </c>
-      <c r="B15" s="43" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="C15" s="43" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="D15" s="43" t="n">
-        <v>0.509</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nota: Viviendas con alguna persona de 16 o más años de edad. </t>
-        </is>
-      </c>
-      <c r="B16" s="19" t="n"/>
-      <c r="C16" s="19" t="n"/>
-      <c r="D16" s="19" t="n"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta de Tecnologías de la Información en los Hogares del INE. Elaboración propia a partir del fichero de microdatos.</t>
-        </is>
-      </c>
-      <c r="B17" s="19" t="n"/>
-      <c r="C17" s="19" t="n"/>
-      <c r="D17" s="19" t="n"/>
+      <c r="D12" s="8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja66">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="48" customWidth="1" style="2" min="1" max="1"/>
-    <col width="11.140625" customWidth="1" style="2" min="2" max="4"/>
-    <col width="11.42578125" customWidth="1" style="2" min="5" max="16384"/>
+    <col min="1" max="1" width="48" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
-        <is>
-          <t>2. Personas según el uso de las Tecnologías de la Información. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-      <c r="D3" s="24" t="inlineStr">
-        <is>
-          <t>España</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
-        <is>
-          <t>Personas de 16 y más años (miles)</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
-        <v>709.903</v>
-      </c>
-      <c r="C4" s="36" t="n">
-        <v>4377.974</v>
-      </c>
-      <c r="D4" s="36" t="n">
-        <v>40508.742</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>Han utilizado Internet (últimos 3 meses)</t>
-        </is>
-      </c>
-      <c r="B5" s="44" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="C5" s="44" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="D5" s="44" t="n">
-        <v>0.893</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Frecuencia de uso:</t>
-        </is>
-      </c>
-      <c r="B6" s="45" t="n"/>
-      <c r="C6" s="45" t="n"/>
-      <c r="D6" s="45" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t>Diariamente, al menos 5 días por semana</t>
-        </is>
-      </c>
-      <c r="B7" s="44" t="n">
-        <v>0.8305414227871877</v>
-      </c>
-      <c r="C7" s="44" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="26">
+        <v>709.90300000000002</v>
+      </c>
+      <c r="C4" s="26">
+        <v>4377.9740000000002</v>
+      </c>
+      <c r="D4" s="26">
+        <v>40508.741999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.83054142278718768</v>
+      </c>
+      <c r="C7" s="17">
         <v>0.8290015481680949</v>
       </c>
-      <c r="D7" s="41" t="n">
-        <v>0.8331623312858025</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="34" t="inlineStr">
-        <is>
-          <t>Más de una vez al día</t>
-        </is>
-      </c>
-      <c r="B8" s="45" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="C8" s="45" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="D8" s="45" t="n">
-        <v>0.778</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A9" s="27" t="inlineStr">
-        <is>
-          <t>Todas las semanas, pero no diariamente</t>
-        </is>
-      </c>
-      <c r="B9" s="44" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="C9" s="44" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="D9" s="41" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A10" s="33" t="inlineStr">
-        <is>
-          <t>Menos de una vez por semana</t>
-        </is>
-      </c>
-      <c r="B10" s="45" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C10" s="45" t="n">
+      <c r="D7" s="16">
+        <v>0.83316233128580253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.01</v>
       </c>
-      <c r="D10" s="45" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Compras a través de Internet (últimos 3 meses)</t>
-        </is>
-      </c>
-      <c r="B11" s="44" t="n">
+      <c r="D10" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17">
         <v>0.505</v>
       </c>
-      <c r="C11" s="44" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="D11" s="41" t="n">
+      <c r="C11" s="17">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D11" s="16">
         <v>0.504</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta de Tecnologías de la Información en los Hogares del INE. Elaboración propia a partir del fichero de microdatos.</t>
-        </is>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>